--- a/result/tw_tour_epirisk.xlsx
+++ b/result/tw_tour_epirisk.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC65"/>
+  <dimension ref="A1:AI66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,67 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ln_im_20200211</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>ln_im_20200217</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200219</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200221</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ln_im_20200223</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ln_im_20200225</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ln_im_20200227</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200304</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200307</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200310</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200311</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200312</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200314</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ln_im_20200316</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200318</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200320</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200324</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>ln_im_20200325</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ln_im_20200331</t>
         </is>
       </c>
     </row>
@@ -523,81 +553,6 @@
       <c r="D2">
         <v>185</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>5.220355825078324</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -615,78 +570,6 @@
           <t>Andorra</t>
         </is>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -707,75 +590,6 @@
       <c r="E4">
         <v>0.000114153814141323</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -857,18 +671,36 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AD5">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="AE5">
         <v>1.6094379124341</v>
       </c>
-      <c r="AA5">
+      <c r="AF5">
         <v>2.079441541679836</v>
       </c>
-      <c r="AB5">
+      <c r="AG5">
         <v>2.079441541679836</v>
       </c>
-      <c r="AC5">
+      <c r="AH5">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="AI5">
         <v>2.079441541679836</v>
       </c>
     </row>
@@ -891,75 +723,6 @@
       <c r="E6">
         <v>0.0002802255140036768</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1038,21 +801,39 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AC7">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AD7">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AE7">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AF7">
         <v>1.09861228866811</v>
       </c>
-      <c r="AB7">
+      <c r="AG7">
         <v>1.386294361119891</v>
       </c>
-      <c r="AC7">
+      <c r="AH7">
+        <v>1.6094379124341</v>
+      </c>
+      <c r="AI7">
         <v>1.6094379124341</v>
       </c>
     </row>
@@ -1145,9 +926,27 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AH8">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AI8">
         <v>0.6931471805599453</v>
       </c>
     </row>
@@ -1170,81 +969,6 @@
       <c r="D9">
         <v>24</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>3.178053830347946</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1271,75 +995,6 @@
       <c r="F10">
         <v>2.197530212044843</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1421,19 +1076,37 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AD11">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AE11">
         <v>1.09861228866811</v>
       </c>
-      <c r="AA11">
+      <c r="AF11">
         <v>1.09861228866811</v>
       </c>
-      <c r="AB11">
+      <c r="AG11">
         <v>1.386294361119891</v>
       </c>
-      <c r="AC11">
+      <c r="AH11">
         <v>1.386294361119891</v>
+      </c>
+      <c r="AI11">
+        <v>1.945910149055313</v>
       </c>
     </row>
     <row r="12">
@@ -1461,75 +1134,6 @@
       <c r="F12">
         <v>4.007536718155571</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1614,16 +1218,34 @@
         <v>0</v>
       </c>
       <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AE13">
         <v>1.386294361119891</v>
       </c>
-      <c r="AA13">
+      <c r="AF13">
         <v>1.791759469228055</v>
       </c>
-      <c r="AB13">
+      <c r="AG13">
         <v>2.19722457733622</v>
       </c>
-      <c r="AC13">
+      <c r="AH13">
         <v>2.19722457733622</v>
+      </c>
+      <c r="AI13">
+        <v>2.397895272798371</v>
       </c>
     </row>
     <row r="14">
@@ -1706,18 +1328,36 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AD14">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="AE14">
         <v>1.6094379124341</v>
       </c>
-      <c r="AA14">
+      <c r="AF14">
         <v>1.945910149055313</v>
       </c>
-      <c r="AB14">
+      <c r="AG14">
         <v>2.302585092994046</v>
       </c>
-      <c r="AC14">
+      <c r="AH14">
+        <v>2.302585092994046</v>
+      </c>
+      <c r="AI14">
         <v>2.302585092994046</v>
       </c>
     </row>
@@ -1810,9 +1450,27 @@
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AH15">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AI15">
         <v>0.6931471805599453</v>
       </c>
     </row>
@@ -1841,75 +1499,6 @@
       <c r="F16">
         <v>3.952421086077575</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1976,16 +1565,16 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0.6931471805599453</v>
@@ -1994,16 +1583,34 @@
         <v>0.6931471805599453</v>
       </c>
       <c r="Z17">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AA17">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AB17">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AC17">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AD17">
+        <v>1.386294361119891</v>
+      </c>
+      <c r="AE17">
         <v>1.6094379124341</v>
       </c>
-      <c r="AA17">
+      <c r="AF17">
         <v>2.079441541679836</v>
       </c>
-      <c r="AB17">
+      <c r="AG17">
         <v>2.397895272798371</v>
       </c>
-      <c r="AC17">
+      <c r="AH17">
         <v>2.484906649788</v>
+      </c>
+      <c r="AI17">
+        <v>2.564949357461537</v>
       </c>
     </row>
     <row r="18">
@@ -2089,16 +1696,34 @@
         <v>0</v>
       </c>
       <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="AE18">
         <v>1.945910149055313</v>
       </c>
-      <c r="AA18">
+      <c r="AF18">
         <v>2.484906649788</v>
       </c>
-      <c r="AB18">
+      <c r="AG18">
         <v>2.70805020110221</v>
       </c>
-      <c r="AC18">
+      <c r="AH18">
         <v>2.70805020110221</v>
+      </c>
+      <c r="AI18">
+        <v>2.995732273553991</v>
       </c>
     </row>
     <row r="19">
@@ -2120,81 +1745,6 @@
       <c r="D19">
         <v>13</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2.564949357461537</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2290,6 +1840,24 @@
       <c r="AC20">
         <v>0</v>
       </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0.6931471805599453</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2371,19 +1939,37 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AD21">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AE21">
         <v>1.945910149055313</v>
       </c>
-      <c r="AA21">
+      <c r="AF21">
         <v>2.639057329615258</v>
       </c>
-      <c r="AB21">
+      <c r="AG21">
         <v>3.044522437723423</v>
       </c>
-      <c r="AC21">
+      <c r="AH21">
         <v>3.091042453358316</v>
+      </c>
+      <c r="AI21">
+        <v>3.258096538021482</v>
       </c>
     </row>
     <row r="22">
@@ -2402,78 +1988,6 @@
           <t>Faeroe Is.</t>
         </is>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2549,25 +2063,43 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AB23">
         <v>1.09861228866811</v>
       </c>
-      <c r="Y23">
+      <c r="AC23">
         <v>1.09861228866811</v>
       </c>
-      <c r="Z23">
+      <c r="AD23">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="AE23">
         <v>1.945910149055313</v>
       </c>
-      <c r="AA23">
+      <c r="AF23">
         <v>2.397895272798371</v>
       </c>
-      <c r="AB23">
+      <c r="AG23">
         <v>3.433987204485146</v>
       </c>
-      <c r="AC23">
+      <c r="AH23">
         <v>3.688879454113936</v>
+      </c>
+      <c r="AI23">
+        <v>4.219507705176107</v>
       </c>
     </row>
     <row r="24">
@@ -2589,75 +2121,6 @@
       <c r="E24">
         <v>0.0003685958808088919</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2675,78 +2138,6 @@
           <t>Gibraltar</t>
         </is>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2831,15 +2222,33 @@
         <v>0</v>
       </c>
       <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
         <v>1.09861228866811</v>
       </c>
-      <c r="AA26">
+      <c r="AE26">
         <v>1.09861228866811</v>
       </c>
-      <c r="AB26">
+      <c r="AF26">
         <v>1.09861228866811</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="AH26">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="AI26">
         <v>1.09861228866811</v>
       </c>
     </row>
@@ -2859,78 +2268,6 @@
           <t>Greenland</t>
         </is>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2957,75 +2294,6 @@
       <c r="F28">
         <v>4.290628610352656</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3052,75 +2320,6 @@
       <c r="F29">
         <v>5.707967209254686</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3199,22 +2398,40 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AB30">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AC30">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AD30">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AE30">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AF30">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AG30">
         <v>1.386294361119891</v>
       </c>
-      <c r="AC30">
+      <c r="AH30">
         <v>1.386294361119891</v>
+      </c>
+      <c r="AI30">
+        <v>1.6094379124341</v>
       </c>
     </row>
     <row r="31">
@@ -3300,16 +2517,34 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.6931471805599453</v>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AF31">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AG31">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AH31">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AI31">
+        <v>1.386294361119891</v>
       </c>
     </row>
     <row r="32">
@@ -3337,75 +2572,6 @@
       <c r="F32">
         <v>7.434282030113639</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3490,15 +2656,33 @@
         <v>1.6094379124341</v>
       </c>
       <c r="Z33">
+        <v>1.6094379124341</v>
+      </c>
+      <c r="AA33">
+        <v>1.6094379124341</v>
+      </c>
+      <c r="AB33">
+        <v>1.6094379124341</v>
+      </c>
+      <c r="AC33">
+        <v>1.6094379124341</v>
+      </c>
+      <c r="AD33">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="AE33">
         <v>1.945910149055313</v>
       </c>
-      <c r="AA33">
+      <c r="AF33">
         <v>1.945910149055313</v>
       </c>
-      <c r="AB33">
+      <c r="AG33">
         <v>2.19722457733622</v>
       </c>
-      <c r="AC33">
+      <c r="AH33">
+        <v>2.19722457733622</v>
+      </c>
+      <c r="AI33">
         <v>2.19722457733622</v>
       </c>
     </row>
@@ -3527,75 +2711,6 @@
       <c r="F34">
         <v>4.477645022054848</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3613,78 +2728,6 @@
           <t>Libya</t>
         </is>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3702,78 +2745,6 @@
           <t>Liechtenstein</t>
         </is>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3800,75 +2771,6 @@
       <c r="F37">
         <v>3.637687837790823</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3956,12 +2858,30 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AG38">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AH38">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AI38">
         <v>0.6931471805599453</v>
       </c>
     </row>
@@ -3984,81 +2904,6 @@
       <c r="D39">
         <v>6</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1.791759469228055</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4154,6 +2999,24 @@
       <c r="AC40">
         <v>0</v>
       </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0.6931471805599453</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4171,9 +3034,6 @@
           <t>Monaco</t>
         </is>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -4242,6 +3102,24 @@
       </c>
       <c r="AC41">
         <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0.6931471805599453</v>
       </c>
     </row>
     <row r="42">
@@ -4260,78 +3138,6 @@
           <t>Moldova</t>
         </is>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4352,81 +3158,6 @@
       <c r="D43">
         <v>6</v>
       </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1.791759469228055</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4447,81 +3178,6 @@
       <c r="D44">
         <v>36</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>3.58351893845611</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4531,85 +3187,13 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">蒙特內哥羅</t>
+          <t>蒙特內哥羅</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>Montenegro</t>
         </is>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4683,27 +3267,45 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AA46">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AB46">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AC46">
         <v>1.09861228866811</v>
       </c>
-      <c r="Z46">
+      <c r="AD46">
         <v>1.09861228866811</v>
       </c>
-      <c r="AA46">
+      <c r="AE46">
+        <v>1.09861228866811</v>
+      </c>
+      <c r="AF46">
         <v>1.386294361119891</v>
       </c>
-      <c r="AB46">
+      <c r="AG46">
         <v>2.19722457733622</v>
       </c>
-      <c r="AC46">
+      <c r="AH46">
+        <v>2.302585092994046</v>
+      </c>
+      <c r="AI46">
         <v>2.302585092994046</v>
       </c>
     </row>
@@ -4732,75 +3334,6 @@
       <c r="F47">
         <v>6.483893204214718</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4888,12 +3421,30 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AG48">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AH48">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AI48">
         <v>0.6931471805599453</v>
       </c>
     </row>
@@ -4983,13 +3534,31 @@
         <v>0</v>
       </c>
       <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
         <v>1.09861228866811</v>
       </c>
-      <c r="AB49">
+      <c r="AG49">
         <v>1.09861228866811</v>
       </c>
-      <c r="AC49">
+      <c r="AH49">
         <v>1.09861228866811</v>
+      </c>
+      <c r="AI49">
+        <v>1.386294361119891</v>
       </c>
     </row>
     <row r="50">
@@ -5008,78 +3577,6 @@
           <t>Palestine</t>
         </is>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5106,75 +3603,6 @@
       <c r="F51">
         <v>3.664020121633981</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5201,75 +3629,6 @@
       <c r="F52">
         <v>6.15032221822828</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5287,78 +3646,6 @@
           <t>San Marino</t>
         </is>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5379,75 +3666,6 @@
       <c r="E54">
         <v>0.0006563318123460397</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5468,81 +3686,6 @@
       <c r="D55">
         <v>5</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1.6094379124341</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>0</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5563,81 +3706,6 @@
       <c r="D56">
         <v>55</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>4.007333185232471</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5664,75 +3732,6 @@
       <c r="F57">
         <v>7.127787185110699</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5750,78 +3749,6 @@
           <t>Syria</t>
         </is>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5917,6 +3844,24 @@
       <c r="AC59">
         <v>0</v>
       </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0.6931471805599453</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5995,22 +3940,40 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>0.6931471805599453</v>
+        <v>0</v>
       </c>
       <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0.6931471805599453</v>
+      </c>
+      <c r="AC60">
         <v>1.09861228866811</v>
       </c>
-      <c r="Z60">
+      <c r="AD60">
+        <v>2.079441541679836</v>
+      </c>
+      <c r="AE60">
         <v>2.772588722239781</v>
       </c>
-      <c r="AA60">
+      <c r="AF60">
         <v>2.833213344056216</v>
       </c>
-      <c r="AB60">
+      <c r="AG60">
         <v>2.94443897916644</v>
       </c>
-      <c r="AC60">
+      <c r="AH60">
         <v>2.995732273553991</v>
+      </c>
+      <c r="AI60">
+        <v>3.044522437723423</v>
       </c>
     </row>
     <row r="61">
@@ -6038,94 +4001,31 @@
       <c r="F61">
         <v>2.565976635154349</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>XKX</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>科索沃</t>
+          <t>美國</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kosovo</t>
-        </is>
+          <t>United States of America</t>
+        </is>
+      </c>
+      <c r="D62">
+        <v>97833</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.05325302511661957</v>
+      </c>
+      <c r="F62">
+        <v>11.5429007164676</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6195,273 +4095,92 @@
       </c>
       <c r="AC62">
         <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>1.791759469228055</v>
+      </c>
+      <c r="AF62">
+        <v>2.639057329615258</v>
+      </c>
+      <c r="AG62">
+        <v>3.688879454113936</v>
+      </c>
+      <c r="AH62">
+        <v>3.828641396489095</v>
+      </c>
+      <c r="AI62">
+        <v>4.204692619390966</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VAT</t>
+          <t>XKX</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>梵蒂岡</t>
+          <t>科索沃</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Vatican</t>
-        </is>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>0</v>
+          <t>Kosovo</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JEY</t>
+          <t>VAT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>澤西島</t>
+          <t>梵蒂岡</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Jersey</t>
-        </is>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
+          <t>Vatican</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>JEY</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>澤西島</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Jersey</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>GGY</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>根西島</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Guernsey</t>
         </is>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
